--- a/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
@@ -209,10 +209,10 @@
     <t>NewProject</t>
   </si>
   <si>
-    <t>SFGTest3</t>
-  </si>
-  <si>
     <t>Addtional Billing</t>
+  </si>
+  <si>
+    <t>SFGTest4</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,13 +735,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>58</v>
@@ -771,7 +771,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>41</v>

--- a/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
@@ -212,7 +212,7 @@
     <t>Addtional Billing</t>
   </si>
   <si>
-    <t>SFGTest4</t>
+    <t>SFGTest11</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/CreateJobRequest.xlsx
@@ -191,28 +191,28 @@
     <t>Password</t>
   </si>
   <si>
+    <t>NewClient</t>
+  </si>
+  <si>
+    <t>APL Logistics</t>
+  </si>
+  <si>
+    <t>NewProject</t>
+  </si>
+  <si>
+    <t>Addtional Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wms </t>
+  </si>
+  <si>
+    <t>sv123</t>
+  </si>
+  <si>
     <t>Ashwini.Shashikiran</t>
   </si>
   <si>
-    <t>sv123</t>
-  </si>
-  <si>
-    <t>NewClient</t>
-  </si>
-  <si>
-    <t>Wms</t>
-  </si>
-  <si>
-    <t>APL Logistics</t>
-  </si>
-  <si>
-    <t>NewProject</t>
-  </si>
-  <si>
-    <t>Addtional Billing</t>
-  </si>
-  <si>
-    <t>SFGTest11</t>
+    <t>SFGTest4091</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="2" spans="1:37" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -738,13 +738,13 @@
         <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -771,7 +771,7 @@
         <v>40</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>41</v>
@@ -835,6 +835,44 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"India,Australia,Canada"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"IT,BPO,PST,SSS-Shared Services,SHILOH,GC-IT,DIGITAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"APL Logistics,Arbor Health,Arke"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>".Net,Ab Initio,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>"Associate,Architect,Associate Technical Architect"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>"Analyst - Systems,Account Manager,Account Manager - APR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+      <formula1>"Billed,Unbilled"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3">
+      <formula1>"Confirmed,Pipeline"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
+      <formula1>"Addtional Billing,Replacement"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X4">
+      <formula1>"Fulltime,Contract,Contract to Hire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3">
+      <formula1>"Desktop,Laptop"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
